--- a/DIGGSGeophysicsTestPropertyDefinitions.xlsx
+++ b/DIGGSGeophysicsTestPropertyDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-schema/Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/Geophysics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ABDFC5-5A7F-A549-821D-242E73916E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF30B4B0-65EF-2A44-AB86-F321162B10EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="6940" windowWidth="37440" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22720" yWindow="6940" windowWidth="37440" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Lists" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="406">
   <si>
     <t>Code</t>
   </si>
@@ -119,9 +118,6 @@
     <t>measurement_property_class</t>
   </si>
   <si>
-    <t>DIGGS meassurement property classes</t>
-  </si>
-  <si>
     <t>This needs to be edited</t>
   </si>
   <si>
@@ -1251,6 +1247,12 @@
   </si>
   <si>
     <t>reciprocal time squared</t>
+  </si>
+  <si>
+    <t>DIGGS meassurement property classes for geophysics</t>
+  </si>
+  <si>
+    <t>geophysics_property_class</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1462,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1474,34 +1476,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1525,7 +1511,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1533,7 +1518,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1550,18 +1534,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1690,6 +1662,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1727,49 +1708,49 @@
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:I133" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:I133" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:I133" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I133">
     <sortCondition ref="C1:C133"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Data type" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UOMType" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{313812A5-E93A-A245-8463-A5AF16FAF51A}" name="Reference" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Data type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UOMType" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{313812A5-E93A-A245-8463-A5AF16FAF51A}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C193" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C193" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C193" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C193">
     <sortCondition ref="B1:B193"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Code" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Element" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Code" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Element" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2041,8 +2022,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2053,29 +2034,29 @@
     <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2073,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2102,7 +2083,7 @@
     <col min="2" max="2" width="25.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="3"/>
@@ -2133,12 +2114,12 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="str">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2146,24 +2127,23 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="str">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2171,25 +2151,23 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2197,25 +2175,23 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="str">
+      <c r="A5" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2223,13 +2199,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -2239,7 +2215,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="str">
+      <c r="A6" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2247,13 +2223,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -2263,7 +2239,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2271,24 +2247,23 @@
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2296,13 +2271,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -2312,7 +2287,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2320,23 +2295,23 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="str">
+      <c r="A10" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2344,48 +2319,47 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="str">
+      <c r="A11" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="str">
+      <c r="A12" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2393,23 +2367,23 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="str">
+      <c r="A13" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2417,23 +2391,23 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="str">
+      <c r="A14" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2441,23 +2415,23 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="str">
+      <c r="A15" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2465,23 +2439,23 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="str">
+      <c r="A16" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2489,26 +2463,26 @@
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="str">
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2516,13 +2490,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
@@ -2531,8 +2505,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="str">
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2540,23 +2514,23 @@
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="str">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2564,23 +2538,23 @@
         <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2588,23 +2562,23 @@
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="str">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2612,23 +2586,23 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2636,13 +2610,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2625,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="str">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2660,13 +2634,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
@@ -2675,8 +2649,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="str">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2684,23 +2658,23 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="str">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2708,13 +2682,13 @@
         <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
@@ -2723,8 +2697,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="str">
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2732,23 +2706,23 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="str">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2756,23 +2730,23 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="str">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2780,23 +2754,23 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="str">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2804,23 +2778,23 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="str">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2828,23 +2802,23 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="str">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2852,13 +2826,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>4</v>
@@ -2867,8 +2841,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="str">
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2876,13 +2850,13 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2890,10 +2864,9 @@
       <c r="G32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="str">
+      <c r="A33" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2901,13 +2874,13 @@
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
@@ -2917,7 +2890,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="str">
+      <c r="A34" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2925,13 +2898,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>4</v>
@@ -2941,7 +2914,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="str">
+      <c r="A35" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2949,23 +2922,23 @@
         <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="str">
+      <c r="A36" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2973,23 +2946,23 @@
         <v>26</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="str">
+      <c r="A37" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2997,13 +2970,13 @@
         <v>26</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>4</v>
@@ -3013,7 +2986,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="str">
+      <c r="A38" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3021,13 +2994,13 @@
         <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>4</v>
@@ -3037,7 +3010,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="str">
+      <c r="A39" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3045,25 +3018,25 @@
         <v>26</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="str">
+      <c r="A40" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3071,24 +3044,23 @@
         <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="11"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="str">
+      <c r="A41" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3096,23 +3068,23 @@
         <v>26</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="str">
+      <c r="A42" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3120,23 +3092,23 @@
         <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3144,23 +3116,23 @@
         <v>26</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="str">
+      <c r="A44" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3168,23 +3140,23 @@
         <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="str">
+      <c r="A45" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3192,23 +3164,23 @@
         <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="str">
+      <c r="A46" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3216,13 +3188,13 @@
         <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
@@ -3232,7 +3204,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="str">
+      <c r="A47" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3240,13 +3212,13 @@
         <v>26</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -3256,7 +3228,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="str">
+      <c r="A48" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3264,23 +3236,23 @@
         <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="str">
+      <c r="A49" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3288,13 +3260,13 @@
         <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -3304,7 +3276,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="str">
+      <c r="A50" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3312,13 +3284,13 @@
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>98</v>
+      <c r="E50" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>4</v>
@@ -3328,7 +3300,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="str">
+      <c r="A51" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3336,23 +3308,23 @@
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="str">
+      <c r="A52" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3360,45 +3332,44 @@
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>100</v>
+      <c r="G52" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="str">
+      <c r="A53" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="E53" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="11"/>
+      <c r="G53" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
@@ -3409,13 +3380,13 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
         <v>130</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>132</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
@@ -3426,7 +3397,7 @@
       <c r="H54"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="str">
+      <c r="A55" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3434,23 +3405,23 @@
         <v>26</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="str">
+      <c r="A56" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3458,13 +3429,13 @@
         <v>26</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>4</v>
@@ -3474,7 +3445,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="str">
+      <c r="A57" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3482,23 +3453,23 @@
         <v>26</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="str">
+      <c r="A58" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3506,48 +3477,47 @@
         <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="str">
+      <c r="A59" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="str">
+      <c r="A60" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3555,13 +3525,13 @@
         <v>26</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
@@ -3571,7 +3541,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="str">
+      <c r="A61" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3579,23 +3549,23 @@
         <v>26</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="str">
+      <c r="A62" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3603,23 +3573,23 @@
         <v>26</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="str">
+      <c r="A63" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3627,23 +3597,23 @@
         <v>26</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="str">
+      <c r="A64" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3651,23 +3621,23 @@
         <v>26</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="str">
+      <c r="A65" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3675,13 +3645,13 @@
         <v>26</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>4</v>
@@ -3691,7 +3661,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="str">
+      <c r="A66" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3699,23 +3669,23 @@
         <v>26</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="str">
+      <c r="A67" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3723,13 +3693,13 @@
         <v>26</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>7</v>
@@ -3737,7 +3707,7 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="str">
+      <c r="A68" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3745,13 +3715,13 @@
         <v>26</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>142</v>
+      <c r="E68" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>4</v>
@@ -3761,7 +3731,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="str">
+      <c r="A69" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3769,7 +3739,7 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="str">
+      <c r="A70" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3777,7 +3747,7 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="str">
+      <c r="A71" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3785,7 +3755,7 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="str">
+      <c r="A72" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3793,7 +3763,7 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="str">
+      <c r="A73" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3801,7 +3771,7 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="str">
+      <c r="A74" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3809,7 +3779,7 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="str">
+      <c r="A75" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3817,7 +3787,7 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="str">
+      <c r="A76" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3825,7 +3795,7 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="str">
+      <c r="A77" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3833,7 +3803,7 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="str">
+      <c r="A78" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3841,7 +3811,7 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="str">
+      <c r="A79" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3849,7 +3819,7 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="str">
+      <c r="A80" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3857,7 +3827,7 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="str">
+      <c r="A81" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3865,7 +3835,7 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="str">
+      <c r="A82" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3873,7 +3843,7 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="str">
+      <c r="A83" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3881,7 +3851,7 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="str">
+      <c r="A84" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3889,7 +3859,7 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="str">
+      <c r="A85" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3897,7 +3867,7 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="str">
+      <c r="A86" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3905,7 +3875,7 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="str">
+      <c r="A87" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3913,7 +3883,7 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="str">
+      <c r="A88" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3921,7 +3891,7 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="str">
+      <c r="A89" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3929,7 +3899,7 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="str">
+      <c r="A90" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3937,7 +3907,7 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="str">
+      <c r="A91" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3945,7 +3915,7 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="str">
+      <c r="A92" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3953,7 +3923,7 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="str">
+      <c r="A93" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3961,7 +3931,7 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="str">
+      <c r="A94" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3969,7 +3939,7 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="str">
+      <c r="A95" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3977,7 +3947,7 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="str">
+      <c r="A96" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3985,7 +3955,7 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="str">
+      <c r="A97" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -3993,7 +3963,7 @@
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="str">
+      <c r="A98" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4001,7 +3971,7 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="str">
+      <c r="A99" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4009,7 +3979,7 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="str">
+      <c r="A100" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4017,7 +3987,7 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="str">
+      <c r="A101" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4025,7 +3995,7 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="str">
+      <c r="A102" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4033,7 +4003,7 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="str">
+      <c r="A103" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4041,7 +4011,7 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="str">
+      <c r="A104" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4049,7 +4019,7 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="str">
+      <c r="A105" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4057,7 +4027,7 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="str">
+      <c r="A106" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4065,7 +4035,7 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="str">
+      <c r="A107" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4073,7 +4043,7 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="str">
+      <c r="A108" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4081,7 +4051,7 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="str">
+      <c r="A109" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4089,7 +4059,7 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="str">
+      <c r="A110" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4097,7 +4067,7 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="str">
+      <c r="A111" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4105,7 +4075,7 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="str">
+      <c r="A112" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4113,7 +4083,7 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="str">
+      <c r="A113" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4121,34 +4091,34 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="str">
+      <c r="A114" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D114" s="4"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="7"/>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="str">
+      <c r="A115" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="21"/>
+      <c r="E115" s="13"/>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="str">
+      <c r="A116" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="21"/>
+      <c r="E116" s="13"/>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="str">
+      <c r="A117" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4156,7 +4126,7 @@
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="str">
+      <c r="A118" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4164,7 +4134,7 @@
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="str">
+      <c r="A119" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4172,7 +4142,7 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="str">
+      <c r="A120" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4180,7 +4150,7 @@
       <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="str">
+      <c r="A121" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4188,16 +4158,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="str">
+      <c r="A122" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="B122" s="11"/>
       <c r="D122" s="4"/>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="str">
+      <c r="A123" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4205,7 +4174,7 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="str">
+      <c r="A124" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4213,16 +4182,15 @@
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="str">
+      <c r="A125" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="C125" s="14"/>
       <c r="D125" s="4"/>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="str">
+      <c r="A126" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4230,7 +4198,7 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="str">
+      <c r="A127" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4238,7 +4206,7 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="str">
+      <c r="A128" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4246,7 +4214,7 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="str">
+      <c r="A129" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4254,25 +4222,25 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="str">
+      <c r="A130" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D130" s="4"/>
-      <c r="E130" s="22"/>
+      <c r="E130" s="14"/>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="str">
+      <c r="A131" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D131" s="4"/>
-      <c r="E131" s="22"/>
+      <c r="E131" s="14"/>
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="str">
+      <c r="A132" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -4280,11 +4248,10 @@
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="str">
+      <c r="A133" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C133,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="B133" s="11"/>
       <c r="D133" s="4"/>
       <c r="G133" s="4"/>
     </row>
@@ -4325,1909 +4292,1904 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="29" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="30" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="30" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="30" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="30" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="29" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="29" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="29" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="32" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="32" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="30" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="str">
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="str">
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="29" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="str">
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="29" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="str">
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="29" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="str">
+        <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="str">
+      <c r="A116" t="str">
         <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
+      <c r="B116" s="5"/>
+      <c r="C116"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="str">
+      <c r="A117" t="str">
         <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="str">
+      <c r="A118" t="str">
         <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="str">
+      <c r="A119" t="str">
         <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="str">
+      <c r="A120" t="str">
         <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="str">
+      <c r="A121" t="str">
         <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C121" s="6"/>
+      <c r="C121"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="str">
+      <c r="A122" t="str">
         <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C122" s="6"/>
+      <c r="C122"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="str">
+      <c r="A123" t="str">
         <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="str">
+      <c r="A124" t="str">
         <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="str">
+      <c r="A125" t="str">
         <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C125" s="6"/>
+      <c r="C125"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="str">
+      <c r="A126" t="str">
         <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C126" s="6"/>
+      <c r="C126"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="str">
+      <c r="A127" t="str">
         <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="str">
+      <c r="A128" t="str">
         <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="str">
+      <c r="A129" t="str">
         <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="15" t="str">
+      <c r="A130" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="15" t="str">
+      <c r="A131" t="str">
         <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="str">
+      <c r="A132" t="str">
         <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="str">
+      <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B133" s="23"/>
+      <c r="B133" s="15"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="str">
+      <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C134" s="6"/>
+      <c r="C134"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="str">
+      <c r="A135" t="str">
         <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="5"/>
+      <c r="C135"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="str">
+      <c r="A136" t="str">
         <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C136" s="6"/>
+      <c r="C136"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="str">
+      <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C137" s="6"/>
+      <c r="C137"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="str">
+      <c r="A138" t="str">
         <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
+      <c r="B138" s="5"/>
+      <c r="C138"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="str">
+      <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C139" s="6"/>
+      <c r="C139"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="str">
+      <c r="A140" t="str">
         <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="str">
+      <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="str">
+      <c r="A142" t="str">
         <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="str">
+      <c r="A143" t="str">
         <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="str">
+      <c r="A144" t="str">
         <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
+      <c r="C144"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="str">
+      <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B145" s="3"/>
-      <c r="C145" s="6"/>
+      <c r="C145"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="str">
+      <c r="A146" t="str">
         <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
+      <c r="C146"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="str">
+      <c r="A147" t="str">
         <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C147" s="6"/>
+      <c r="C147"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="str">
+      <c r="A148" t="str">
         <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="str">
+      <c r="A149" t="str">
         <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="str">
+      <c r="A150" t="str">
         <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="str">
+      <c r="A151" t="str">
         <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="str">
+      <c r="A152" t="str">
         <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="str">
+      <c r="A153" t="str">
         <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="str">
+      <c r="A154" t="str">
         <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B154" s="3"/>
-      <c r="C154" s="6"/>
+      <c r="C154"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="str">
+      <c r="A155" t="str">
         <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B155" s="3"/>
-      <c r="C155" s="6"/>
+      <c r="C155"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="str">
+      <c r="A156" t="str">
         <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B156" s="3"/>
-      <c r="C156" s="6"/>
+      <c r="C156"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="str">
+      <c r="A157" t="str">
         <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C157" s="6"/>
+      <c r="C157"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="15" t="str">
+      <c r="A158" t="str">
         <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C158" s="6"/>
+      <c r="C158"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="str">
+      <c r="A159" t="str">
         <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="15" t="str">
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="str">
         <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B160" s="5"/>
+      <c r="C160"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="15" t="str">
+      <c r="A161" t="str">
         <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C161" s="6"/>
+      <c r="C161"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="15" t="str">
+      <c r="A162" t="str">
         <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C162" s="6"/>
+      <c r="C162"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="str">
+      <c r="A163" t="str">
         <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
+      <c r="C163"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="15" t="str">
+      <c r="A164" t="str">
         <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
+      <c r="C164"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="20" t="str">
+      <c r="A165" t="str">
         <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="C165"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="str">
+      <c r="A166" t="str">
         <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="str">
+      <c r="A167" t="str">
         <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="str">
+      <c r="A168" t="str">
         <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="15" t="str">
+      <c r="A169" t="str">
         <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="str">
+      <c r="A170" t="str">
         <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="str">
+      <c r="A171" t="str">
         <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B171" s="10"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="str">
+      <c r="A172" t="str">
         <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="str">
+      <c r="A173" t="str">
         <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="str">
+      <c r="A174" t="str">
         <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="str">
+      <c r="A175" t="str">
         <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="str">
+      <c r="A176" t="str">
         <f>IF(ISNA(VLOOKUP(B176,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C176" s="6"/>
+      <c r="C176"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="str">
+      <c r="A177" t="str">
         <f>IF(ISNA(VLOOKUP(B177,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
+      <c r="C177"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="str">
+      <c r="A178" t="str">
         <f>IF(ISNA(VLOOKUP(B178,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="str">
+      <c r="A179" t="str">
         <f>IF(ISNA(VLOOKUP(B179,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="str">
+      <c r="A180" t="str">
         <f>IF(ISNA(VLOOKUP(B180,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="15" t="str">
+      <c r="A181" t="str">
         <f>IF(ISNA(VLOOKUP(B181,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C181" s="6"/>
+      <c r="C181"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="str">
+      <c r="A182" t="str">
         <f>IF(ISNA(VLOOKUP(B182,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C182" s="6"/>
+      <c r="C182"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="str">
+      <c r="A183" t="str">
         <f>IF(ISNA(VLOOKUP(B183,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="str">
+      <c r="A184" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C184" s="6"/>
+      <c r="C184"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="str">
+      <c r="A185" t="str">
         <f>IF(ISNA(VLOOKUP(B185,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C185" s="6"/>
+      <c r="C185"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="str">
+      <c r="A186" t="str">
         <f>IF(ISNA(VLOOKUP(B186,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C186" s="6"/>
+      <c r="C186"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="str">
+      <c r="A187" t="str">
         <f>IF(ISNA(VLOOKUP(B187,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="str">
+      <c r="A188" t="str">
         <f>IF(ISNA(VLOOKUP(B188,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="str">
+      <c r="A189" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="str">
+      <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="str">
+      <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="str">
+      <c r="A192" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="15" t="str">
+      <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!C$2:C$2004,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
@@ -6274,952 +6236,952 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="36" t="s">
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="36" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="36" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="36" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="36" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="36" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="36" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="36" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="36" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="36" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="36" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="36" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="36" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="36" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="36" t="s">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="36" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="36" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="36" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="36" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="36" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="36" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="36" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="36" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="36" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="36" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="36" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="36" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="36" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="36" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="36" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="36" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C156" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C158" s="36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="36" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C160" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="36" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="36" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="36" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
